--- a/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-06-19</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -489,7 +489,7 @@
     <t>患者の生誕地をAddress型で表現する</t>
   </si>
   <si>
-    <t>Race</t>
+    <t>race</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Patient_Race}
@@ -863,13 +863,6 @@
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
 複数の名前で患者を追跡できる必要があります。例としては、正式名とパートナー名があります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:extension.value[x]}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>EN (actually, PN)</t>
@@ -2399,7 +2392,7 @@
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="24.91015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -5077,7 +5070,7 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>246</v>
@@ -5129,14 +5122,16 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>245</v>
@@ -5148,13 +5143,13 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5163,7 +5158,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5171,7 +5166,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5194,19 +5189,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5255,7 +5250,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5270,16 +5265,16 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5287,7 +5282,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5399,7 +5394,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5513,7 +5508,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5539,13 +5534,13 @@
         <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5574,28 +5569,28 @@
         <v>187</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5604,13 +5599,13 @@
         <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5619,7 +5614,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5627,7 +5622,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5653,16 +5648,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5711,7 +5706,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5726,7 +5721,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5735,7 +5730,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5743,7 +5738,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5769,16 +5764,16 @@
         <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5806,28 +5801,28 @@
         <v>187</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5842,7 +5837,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5851,7 +5846,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5859,7 +5854,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5882,16 +5877,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5941,7 +5936,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5973,7 +5968,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5999,13 +5994,13 @@
         <v>221</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6055,7 +6050,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6070,7 +6065,7 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6087,7 +6082,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6113,16 +6108,16 @@
         <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6150,10 +6145,10 @@
         <v>187</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6171,7 +6166,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6186,16 +6181,16 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6203,7 +6198,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6226,19 +6221,19 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6287,7 +6282,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6302,24 +6297,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6342,19 +6337,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6403,7 +6398,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6418,7 +6413,7 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>176</v>
@@ -6427,7 +6422,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6435,7 +6430,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6458,19 +6453,19 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6519,7 +6514,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6534,16 +6529,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6551,7 +6546,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6663,7 +6658,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6777,7 +6772,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6803,16 +6798,16 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6825,7 +6820,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6840,28 +6835,28 @@
         <v>187</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6876,7 +6871,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6885,7 +6880,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6893,7 +6888,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6919,13 +6914,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6939,7 +6934,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6954,28 +6949,28 @@
         <v>187</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6990,7 +6985,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6999,7 +6994,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7007,7 +7002,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7033,16 +7028,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7055,7 +7050,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -7091,7 +7086,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7106,7 +7101,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7115,7 +7110,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7123,7 +7118,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7149,13 +7144,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7169,7 +7164,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7205,7 +7200,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7220,7 +7215,7 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7229,7 +7224,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7237,11 +7232,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7263,13 +7258,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7283,7 +7278,7 @@
         <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>80</v>
@@ -7319,7 +7314,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7334,7 +7329,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7343,7 +7338,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7351,11 +7346,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7377,13 +7372,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7397,7 +7392,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7433,7 +7428,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7448,7 +7443,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7457,7 +7452,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7465,11 +7460,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7491,13 +7486,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7547,7 +7542,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7562,7 +7557,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7571,7 +7566,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7579,11 +7574,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7605,13 +7600,13 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7625,7 +7620,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7661,7 +7656,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7676,7 +7671,7 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7685,7 +7680,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7693,7 +7688,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7719,13 +7714,13 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7775,7 +7770,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7790,7 +7785,7 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7799,7 +7794,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7807,7 +7802,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7833,16 +7828,16 @@
         <v>221</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7855,7 +7850,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -7891,7 +7886,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7906,7 +7901,7 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7915,7 +7910,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7923,7 +7918,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7949,16 +7944,16 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7986,10 +7981,10 @@
         <v>198</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -8007,7 +8002,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8022,16 +8017,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8039,7 +8034,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8062,19 +8057,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8123,7 +8118,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8138,7 +8133,7 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>176</v>
@@ -8147,7 +8142,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8155,7 +8150,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8178,19 +8173,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8239,7 +8234,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8254,7 +8249,7 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>176</v>
@@ -8263,7 +8258,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8271,7 +8266,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8294,19 +8289,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8355,7 +8350,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8367,10 +8362,10 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>176</v>
@@ -8387,7 +8382,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8499,7 +8494,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8613,11 +8608,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8639,10 +8634,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>159</v>
@@ -8697,7 +8692,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8729,7 +8724,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8755,16 +8750,16 @@
         <v>193</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8792,10 +8787,10 @@
         <v>198</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8813,7 +8808,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8828,7 +8823,7 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>176</v>
@@ -8837,7 +8832,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8845,7 +8840,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8868,17 +8863,17 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8927,7 +8922,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8942,7 +8937,7 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>176</v>
@@ -8951,7 +8946,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8959,7 +8954,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8982,19 +8977,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9043,7 +9038,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9058,7 +9053,7 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>176</v>
@@ -9067,7 +9062,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9075,7 +9070,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9098,17 +9093,17 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9157,7 +9152,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9172,7 +9167,7 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>176</v>
@@ -9181,7 +9176,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9189,7 +9184,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9215,14 +9210,14 @@
         <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9250,10 +9245,10 @@
         <v>187</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9271,7 +9266,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9286,7 +9281,7 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>176</v>
@@ -9295,7 +9290,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9303,7 +9298,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9329,16 +9324,16 @@
         <v>229</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9387,7 +9382,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9396,13 +9391,13 @@
         <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>176</v>
@@ -9411,7 +9406,7 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9419,7 +9414,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9445,10 +9440,10 @@
         <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9499,7 +9494,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9514,7 +9509,7 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>176</v>
@@ -9531,7 +9526,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9554,19 +9549,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9615,7 +9610,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9630,10 +9625,10 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9647,7 +9642,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9759,7 +9754,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9873,11 +9868,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9899,10 +9894,10 @@
         <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9957,7 +9952,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9989,7 +9984,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10015,16 +10010,16 @@
         <v>193</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10073,7 +10068,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -10088,16 +10083,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10105,7 +10100,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10131,16 +10126,16 @@
         <v>237</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10189,7 +10184,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10204,16 +10199,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10221,11 +10216,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10244,16 +10239,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10303,7 +10298,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10318,7 +10313,7 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>176</v>
@@ -10327,7 +10322,7 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10335,7 +10330,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10361,16 +10356,16 @@
         <v>229</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10419,7 +10414,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10434,10 +10429,10 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10451,7 +10446,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10474,19 +10469,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10535,7 +10530,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10550,7 +10545,7 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>176</v>
@@ -10567,7 +10562,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10679,7 +10674,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10793,11 +10788,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10819,10 +10814,10 @@
         <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>159</v>
@@ -10877,7 +10872,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10909,7 +10904,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10932,16 +10927,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10991,7 +10986,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>87</v>
@@ -11015,7 +11010,7 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11023,7 +11018,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11049,13 +11044,13 @@
         <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11084,10 +11079,10 @@
         <v>187</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11105,7 +11100,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>87</v>
@@ -11120,7 +11115,7 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>176</v>
